--- a/Chuong trinh dao tao.xlsx
+++ b/Chuong trinh dao tao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev01\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Tai-lieu-mon-hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC2976-82CC-4B18-8A15-B105B2346359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DC69E-ECFB-40F3-A901-F8BF131CD352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,18 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
   <si>
     <t>STT</t>
   </si>
@@ -327,13 +333,7 @@
     <t>Luận văn tốt nghiệp</t>
   </si>
   <si>
-    <t>Điểm</t>
-  </si>
-  <si>
     <t>Học kỳ</t>
-  </si>
-  <si>
-    <t>Điểm trung bình</t>
   </si>
   <si>
     <r>
@@ -366,18 +366,6 @@
     </r>
   </si>
   <si>
-    <t>Tổng số môn</t>
-  </si>
-  <si>
-    <t>Số môn được miễn</t>
-  </si>
-  <si>
-    <t>Số môn phải học</t>
-  </si>
-  <si>
-    <t>Số môn chưa học</t>
-  </si>
-  <si>
     <t>CO2027 - Thiết Kế Web, CO2013 - Hệ cơ sở dữ liệu</t>
   </si>
   <si>
@@ -439,13 +427,55 @@
   </si>
   <si>
     <t>PMH - Hệ Thống &amp; Mạng Máy Tính</t>
+  </si>
+  <si>
+    <t>Điểm TK</t>
+  </si>
+  <si>
+    <t>Điểm TBTL</t>
+  </si>
+  <si>
+    <t>Tổng 
+số 
+môn</t>
+  </si>
+  <si>
+    <t>Số 
+môn 
+được 
+miễn</t>
+  </si>
+  <si>
+    <t>Số 
+môn 
+chưa 
+học</t>
+  </si>
+  <si>
+    <t>Tổng
+ số 
+tín chỉ môn học</t>
+  </si>
+  <si>
+    <t>Số 
+tín 
+chỉ 
+tích
+ lũy</t>
+  </si>
+  <si>
+    <t>Điểm 
+trung 
+bình 
+tích 
+lũy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,8 +540,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,12 +581,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -566,8 +597,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -614,11 +663,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -665,21 +727,17 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -687,25 +745,53 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -986,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N48"/>
+  <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1006,106 +1092,112 @@
     <col min="14" max="14" width="14" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
-        <v>102</v>
-      </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="4" spans="1:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="A4" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="18">
+    <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+    </row>
+    <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="21"/>
+    </row>
+    <row r="4" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="25">
         <f>COUNT(B6:B47)</f>
         <v>42</v>
       </c>
-      <c r="D4" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="20">
+      <c r="C4" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="D4" s="27">
         <f>COUNTIF(N6:N47,12)</f>
         <v>22</v>
       </c>
-      <c r="F4" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="G4" s="16">
-        <f>C4-E4</f>
-        <v>20</v>
-      </c>
-      <c r="H4" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22">
+      <c r="E4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="29">
         <f>COUNTBLANK(N6:N47)</f>
         <v>6</v>
       </c>
-      <c r="M4" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="N4" s="23">
-        <f>AVERAGEIF(N6:N47,"&lt;=10")</f>
-        <v>8.4642857142857135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="30" t="s">
+      <c r="G4" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="H4" s="31">
+        <f>SUMIF(N6:N47,"&lt;&gt;12",G6:G47)</f>
+        <v>68</v>
+      </c>
+      <c r="I4" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="J4" s="33">
+        <f>SUMIFS(G6:G47,N6:N47, "&lt;&gt;", N6:N47, "&lt;&gt;12")</f>
+        <v>43</v>
+      </c>
+      <c r="K4" s="34" t="s">
+        <v>130</v>
+      </c>
+      <c r="L4" s="35">
+        <f>SUM(O6:O47)</f>
+        <v>5.3800000000000008</v>
+      </c>
+      <c r="M4" s="36"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="F5" s="31" t="s">
+      <c r="E5" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="30" t="s">
+      <c r="G5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="30" t="s">
+      <c r="H5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1120,52 +1212,59 @@
       <c r="L5" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="N5" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>6</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="22">
         <v>28</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="E6" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="22">
         <v>3</v>
       </c>
-      <c r="H6" s="3">
-        <v>45</v>
-      </c>
-      <c r="I6" s="3">
-        <v>45</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="N6" s="11">
+      <c r="H6" s="22">
+        <v>45</v>
+      </c>
+      <c r="I6" s="22">
+        <v>45</v>
+      </c>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="N6" s="23">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O6" s="38">
+        <f>IF(N6&lt;&gt;12, ROUND((N6*G6)/$H$4,2), 0)</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>7</v>
       </c>
@@ -1182,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G7" s="3">
         <v>1</v>
@@ -1198,8 +1297,12 @@
       <c r="N7" s="11">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O7" s="38">
+        <f t="shared" ref="O7:O47" si="0">IF(N7&lt;&gt;12, ROUND((N7*G7)/$H$4,2), 0)</f>
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -1216,7 +1319,7 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G8" s="3">
         <v>3</v>
@@ -1235,13 +1338,17 @@
         <v>0.1</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N8" s="11">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O8" s="38">
+        <f t="shared" si="0"/>
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -1258,7 +1365,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
@@ -1280,8 +1387,12 @@
       <c r="N9" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O9" s="38">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -1298,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G10" s="3">
         <v>3</v>
@@ -1315,13 +1426,17 @@
         <v>0.1</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="N10" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O10" s="38">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
@@ -1338,7 +1453,7 @@
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G11" s="3">
         <v>4</v>
@@ -1360,8 +1475,12 @@
       <c r="N11" s="11">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O11" s="38">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>3</v>
       </c>
@@ -1378,7 +1497,7 @@
         <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -1397,13 +1516,17 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N12" s="11">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O12" s="38">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>6</v>
       </c>
@@ -1420,7 +1543,7 @@
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G13" s="3">
         <v>3</v>
@@ -1435,13 +1558,17 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N13" s="11">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O13" s="38">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -1458,7 +1585,7 @@
         <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G14" s="3">
         <v>1</v>
@@ -1474,8 +1601,12 @@
       <c r="N14" s="11">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O14" s="38">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -1492,7 +1623,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G15" s="3">
         <v>4</v>
@@ -1512,8 +1643,12 @@
       <c r="N15" s="11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="O15" s="38">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>7</v>
       </c>
@@ -1530,7 +1665,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G16" s="3">
         <v>3</v>
@@ -1547,13 +1682,17 @@
       </c>
       <c r="L16" s="3"/>
       <c r="M16" s="3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="N16" s="11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O16" s="38">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>7</v>
       </c>
@@ -1570,7 +1709,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G17" s="3">
         <v>4</v>
@@ -1590,8 +1729,12 @@
       <c r="N17" s="11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O17" s="38">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7</v>
       </c>
@@ -1608,7 +1751,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1622,8 +1765,12 @@
       <c r="N18" s="11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O18" s="38">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>8</v>
       </c>
@@ -1640,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G19" s="3">
         <v>4</v>
@@ -1660,8 +1807,12 @@
       <c r="N19" s="11">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O19" s="38">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -1678,7 +1829,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2">
         <v>3</v>
@@ -1702,8 +1853,12 @@
       <c r="N20" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O20" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -1720,7 +1875,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G21" s="2">
         <v>4</v>
@@ -1744,8 +1899,12 @@
       <c r="N21" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O21" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
@@ -1762,7 +1921,7 @@
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -1786,8 +1945,12 @@
       <c r="N22" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O22" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -1804,7 +1967,7 @@
         <v>20</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G23" s="2">
         <v>3</v>
@@ -1826,8 +1989,12 @@
       <c r="N23" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O23" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -1844,7 +2011,7 @@
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2">
         <v>1</v>
@@ -1862,8 +2029,12 @@
       <c r="N24" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O24" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>2</v>
       </c>
@@ -1880,7 +2051,7 @@
         <v>27</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="G25" s="2">
         <v>3</v>
@@ -1902,8 +2073,12 @@
       <c r="N25" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O25" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>2</v>
       </c>
@@ -1920,7 +2095,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G26" s="2">
         <v>5</v>
@@ -1940,8 +2115,12 @@
       <c r="N26" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O26" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -1958,7 +2137,7 @@
         <v>20</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2">
         <v>4</v>
@@ -1980,8 +2159,12 @@
       <c r="N27" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O27" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>3</v>
       </c>
@@ -1998,7 +2181,7 @@
         <v>38</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2">
         <v>2</v>
@@ -2016,8 +2199,12 @@
       <c r="N28" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O28" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>3</v>
       </c>
@@ -2034,7 +2221,7 @@
         <v>20</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G29" s="2">
         <v>4</v>
@@ -2051,13 +2238,17 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="N29" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O29" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>3</v>
       </c>
@@ -2074,7 +2265,7 @@
         <v>13</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="G30" s="2">
         <v>3</v>
@@ -2094,8 +2285,12 @@
       <c r="N30" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O30" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>4</v>
       </c>
@@ -2112,7 +2307,7 @@
         <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G31" s="2">
         <v>4</v>
@@ -2131,13 +2326,17 @@
         <v>0.1</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="N31" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O31" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>4</v>
       </c>
@@ -2154,7 +2353,7 @@
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -2173,13 +2372,17 @@
         <v>0.1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N32" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O32" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>4</v>
       </c>
@@ -2196,7 +2399,7 @@
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G33" s="2">
         <v>3</v>
@@ -2218,8 +2421,12 @@
       <c r="N33" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O33" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>4</v>
       </c>
@@ -2236,7 +2443,7 @@
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G34" s="2">
         <v>1</v>
@@ -2252,8 +2459,12 @@
       <c r="N34" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O34" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>4</v>
       </c>
@@ -2270,7 +2481,7 @@
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G35" s="2">
         <v>4</v>
@@ -2290,8 +2501,12 @@
       <c r="N35" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O35" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>5</v>
       </c>
@@ -2308,7 +2523,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G36" s="2">
         <v>3</v>
@@ -2326,8 +2541,12 @@
       <c r="N36" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O36" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>5</v>
       </c>
@@ -2344,7 +2563,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
@@ -2363,13 +2582,17 @@
         <v>0.1</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N37" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O37" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>6</v>
       </c>
@@ -2386,7 +2609,7 @@
         <v>13</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G38" s="2">
         <v>2</v>
@@ -2403,13 +2626,17 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="N38" s="14">
         <v>12</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O38" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>6</v>
       </c>
@@ -2426,7 +2653,7 @@
         <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G39" s="2">
         <v>3</v>
@@ -2446,8 +2673,12 @@
       <c r="N39" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O39" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>7</v>
       </c>
@@ -2464,7 +2695,7 @@
         <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2">
         <v>3</v>
@@ -2484,8 +2715,12 @@
       <c r="N40" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O40" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>7</v>
       </c>
@@ -2502,7 +2737,7 @@
         <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G41" s="2">
         <v>4</v>
@@ -2522,8 +2757,12 @@
       <c r="N41" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O41" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <v>5</v>
       </c>
@@ -2539,8 +2778,8 @@
       <c r="E42" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="28" t="s">
-        <v>123</v>
+      <c r="F42" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="G42" s="5">
         <v>4</v>
@@ -2557,11 +2796,15 @@
       </c>
       <c r="L42" s="5"/>
       <c r="M42" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N42" s="12"/>
-    </row>
-    <row r="43" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O42" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>5</v>
       </c>
@@ -2577,8 +2820,8 @@
       <c r="E43" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F43" s="28" t="s">
-        <v>123</v>
+      <c r="F43" s="16" t="s">
+        <v>117</v>
       </c>
       <c r="G43" s="5">
         <v>4</v>
@@ -2596,8 +2839,12 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="12"/>
-    </row>
-    <row r="44" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O43" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <v>8</v>
       </c>
@@ -2613,8 +2860,8 @@
       <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="29" t="s">
-        <v>123</v>
+      <c r="F44" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="G44" s="5">
         <v>4</v>
@@ -2631,11 +2878,15 @@
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="N44" s="12"/>
-    </row>
-    <row r="45" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O44" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>8</v>
       </c>
@@ -2651,8 +2902,8 @@
       <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="29" t="s">
-        <v>123</v>
+      <c r="F45" s="17" t="s">
+        <v>117</v>
       </c>
       <c r="G45" s="5">
         <v>4</v>
@@ -2670,8 +2921,12 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="12"/>
-    </row>
-    <row r="46" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O45" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <v>8</v>
       </c>
@@ -2687,8 +2942,8 @@
       <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="28" t="s">
-        <v>119</v>
+      <c r="F46" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="G46" s="5">
         <v>0</v>
@@ -2700,8 +2955,12 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="12"/>
-    </row>
-    <row r="47" spans="1:14" ht="27" x14ac:dyDescent="0.25">
+      <c r="O46" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>9</v>
       </c>
@@ -2717,8 +2976,8 @@
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="28" t="s">
-        <v>119</v>
+      <c r="F47" s="16" t="s">
+        <v>113</v>
       </c>
       <c r="G47" s="5">
         <v>9</v>
@@ -2730,8 +2989,12 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="12"/>
-    </row>
-    <row r="48" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O47" s="38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="N48" s="13"/>
     </row>
@@ -2741,11 +3004,9 @@
       <sortCondition ref="N5:N47"/>
     </sortState>
   </autoFilter>
-  <mergeCells count="4">
+  <mergeCells count="2">
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:N2"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="H4:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Chuong trinh dao tao.xlsx
+++ b/Chuong trinh dao tao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\OneDrive\Máy tính\Tai-lieu-mon-hoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev01\Desktop\Tai-lieu-mon-hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025DC69E-ECFB-40F3-A901-F8BF131CD352}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A8D1C-AE01-483E-A170-FF20150F3C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="450" yWindow="1245" windowWidth="27795" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,12 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -739,59 +733,59 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N43" sqref="N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,87 +1087,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
     </row>
     <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
     </row>
     <row r="4" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="22" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="25">
+      <c r="B4" s="23">
         <f>COUNT(B6:B47)</f>
         <v>42</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="25">
         <f>COUNTIF(N6:N47,12)</f>
         <v>22</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="26" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="27">
         <f>COUNTBLANK(N6:N47)</f>
-        <v>6</v>
-      </c>
-      <c r="G4" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="31">
+      <c r="H4" s="29">
         <f>SUMIF(N6:N47,"&lt;&gt;12",G6:G47)</f>
         <v>68</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="33">
+      <c r="J4" s="31">
         <f>SUMIFS(G6:G47,N6:N47, "&lt;&gt;", N6:N47, "&lt;&gt;12")</f>
-        <v>43</v>
-      </c>
-      <c r="K4" s="34" t="s">
+        <v>47</v>
+      </c>
+      <c r="K4" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="35">
+      <c r="L4" s="33">
         <f>SUM(O6:O47)</f>
-        <v>5.3800000000000008</v>
-      </c>
-      <c r="M4" s="36"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
+        <v>5.82</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="35"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -1223,43 +1217,43 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+      <c r="A6" s="20">
         <v>6</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="20">
         <v>28</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="E6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <v>3</v>
       </c>
-      <c r="H6" s="22">
-        <v>45</v>
-      </c>
-      <c r="I6" s="22">
-        <v>45</v>
-      </c>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22" t="s">
+      <c r="H6" s="20">
+        <v>45</v>
+      </c>
+      <c r="I6" s="20">
+        <v>45</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="21">
         <v>6</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6" s="36">
         <f>IF(N6&lt;&gt;12, ROUND((N6*G6)/$H$4,2), 0)</f>
         <v>0.26</v>
       </c>
@@ -1297,7 +1291,7 @@
       <c r="N7" s="11">
         <v>7.5</v>
       </c>
-      <c r="O7" s="38">
+      <c r="O7" s="36">
         <f t="shared" ref="O7:O47" si="0">IF(N7&lt;&gt;12, ROUND((N7*G7)/$H$4,2), 0)</f>
         <v>0.11</v>
       </c>
@@ -1343,97 +1337,97 @@
       <c r="N8" s="11">
         <v>7.5</v>
       </c>
-      <c r="O8" s="38">
+      <c r="O8" s="36">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B9" s="3">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>24</v>
+        <v>56</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="I9" s="3">
-        <v>45</v>
-      </c>
-      <c r="J9" s="3">
-        <v>30</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="I9" s="7">
+        <v>45</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3" t="s">
+        <v>107</v>
+      </c>
       <c r="N9" s="11">
-        <v>8</v>
-      </c>
-      <c r="O9" s="38">
-        <f t="shared" si="0"/>
-        <v>0.47</v>
+        <v>7.5</v>
+      </c>
+      <c r="O9" s="36">
+        <f t="shared" si="0"/>
+        <v>0.44</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3">
         <v>6</v>
       </c>
-      <c r="B10" s="3">
-        <v>29</v>
-      </c>
       <c r="C10" s="3" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10" s="3">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I10" s="3">
         <v>45</v>
       </c>
-      <c r="J10" s="3"/>
+      <c r="J10" s="3">
+        <v>30</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3">
         <v>0.1</v>
       </c>
-      <c r="M10" s="3" t="s">
-        <v>109</v>
-      </c>
+      <c r="M10" s="3"/>
       <c r="N10" s="11">
         <v>8</v>
       </c>
-      <c r="O10" s="38">
-        <f t="shared" si="0"/>
-        <v>0.35</v>
+      <c r="O10" s="36">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1441,63 +1435,63 @@
         <v>6</v>
       </c>
       <c r="B11" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H11" s="3">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I11" s="3">
         <v>45</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <v>30</v>
-      </c>
+      <c r="K11" s="3"/>
       <c r="L11" s="3">
         <v>0.1</v>
       </c>
-      <c r="M11" s="3"/>
+      <c r="M11" s="3" t="s">
+        <v>109</v>
+      </c>
       <c r="N11" s="11">
         <v>8</v>
       </c>
-      <c r="O11" s="38">
-        <f t="shared" si="0"/>
-        <v>0.47</v>
+      <c r="O11" s="36">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B12" s="3">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G12" s="3">
         <v>4</v>
@@ -1515,109 +1509,115 @@
       <c r="L12" s="3">
         <v>0.1</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>105</v>
-      </c>
+      <c r="M12" s="3"/>
       <c r="N12" s="11">
-        <v>8.5</v>
-      </c>
-      <c r="O12" s="38">
-        <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>8</v>
+      </c>
+      <c r="O12" s="36">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B13" s="3">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G13" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H13" s="3">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I13" s="3">
         <v>45</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+      <c r="K13" s="3">
+        <v>30</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.1</v>
+      </c>
       <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
       <c r="N13" s="11">
         <v>8.5</v>
       </c>
-      <c r="O13" s="38">
-        <f t="shared" si="0"/>
-        <v>0.38</v>
+      <c r="O13" s="36">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="G14" s="3">
-        <v>1</v>
-      </c>
-      <c r="H14" s="7">
-        <v>30</v>
-      </c>
-      <c r="I14" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>45</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
+      <c r="M14" s="3" t="s">
+        <v>105</v>
+      </c>
       <c r="N14" s="11">
-        <v>9</v>
-      </c>
-      <c r="O14" s="38">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
+        <v>8.5</v>
+      </c>
+      <c r="O14" s="36">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -1626,40 +1626,36 @@
         <v>117</v>
       </c>
       <c r="G15" s="3">
-        <v>4</v>
-      </c>
-      <c r="H15" s="3">
-        <v>75</v>
-      </c>
-      <c r="I15" s="3">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>30</v>
+      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <v>30</v>
-      </c>
+      <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="O15" s="38">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+      <c r="O15" s="36">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -1668,42 +1664,40 @@
         <v>117</v>
       </c>
       <c r="G16" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H16" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I16" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
         <v>30</v>
       </c>
       <c r="L16" s="3"/>
-      <c r="M16" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="M16" s="3"/>
       <c r="N16" s="11">
         <v>9.5</v>
       </c>
-      <c r="O16" s="38">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="O16" s="36">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>7</v>
       </c>
       <c r="B17" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -1712,26 +1706,28 @@
         <v>117</v>
       </c>
       <c r="G17" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H17" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I17" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
         <v>30</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
+      <c r="M17" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="N17" s="11">
         <v>9.5</v>
       </c>
-      <c r="O17" s="38">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+      <c r="O17" s="36">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1739,13 +1735,13 @@
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
@@ -1754,34 +1750,40 @@
         <v>117</v>
       </c>
       <c r="G18" s="3">
-        <v>2</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H18" s="3">
+        <v>75</v>
+      </c>
+      <c r="I18" s="3">
+        <v>45</v>
+      </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3">
+        <v>30</v>
+      </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
       <c r="N18" s="11">
         <v>9.5</v>
       </c>
-      <c r="O18" s="38">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+      <c r="O18" s="36">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -1790,101 +1792,91 @@
         <v>117</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3">
-        <v>75</v>
-      </c>
-      <c r="I19" s="3">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="3"/>
-      <c r="K19" s="3">
-        <v>30</v>
-      </c>
+      <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="11">
         <v>9.5</v>
       </c>
-      <c r="O19" s="38">
+      <c r="O19" s="36">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>8</v>
+      </c>
+      <c r="B20" s="3">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>75</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45</v>
+      </c>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3">
+        <v>30</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="11">
+        <v>9.5</v>
+      </c>
+      <c r="O20" s="36">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3</v>
-      </c>
-      <c r="H20" s="2">
-        <v>60</v>
-      </c>
-      <c r="I20" s="2">
-        <v>30</v>
-      </c>
-      <c r="J20" s="2">
-        <v>30</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="10">
-        <v>12</v>
-      </c>
-      <c r="O20" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>1</v>
       </c>
       <c r="B21" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G21" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I21" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J21" s="2">
         <v>30</v>
@@ -1899,29 +1891,29 @@
       <c r="N21" s="10">
         <v>12</v>
       </c>
-      <c r="O21" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="O21" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G22" s="2">
         <v>4</v>
@@ -1945,7 +1937,7 @@
       <c r="N22" s="10">
         <v>12</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1955,32 +1947,34 @@
         <v>1</v>
       </c>
       <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="2">
         <v>4</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G23" s="2">
-        <v>3</v>
-      </c>
       <c r="H23" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I23" s="2">
-        <v>30</v>
-      </c>
-      <c r="J23" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="J23" s="2">
+        <v>30</v>
+      </c>
       <c r="K23" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L23" s="2">
         <v>0.1</v>
@@ -1989,91 +1983,91 @@
       <c r="N23" s="10">
         <v>12</v>
       </c>
-      <c r="O23" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="O23" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G24" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H24" s="2">
-        <v>30</v>
-      </c>
-      <c r="I24" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I24" s="2">
+        <v>30</v>
+      </c>
       <c r="J24" s="2"/>
       <c r="K24" s="2">
         <v>30</v>
       </c>
-      <c r="L24" s="2"/>
+      <c r="L24" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M24" s="2"/>
       <c r="N24" s="10">
         <v>12</v>
       </c>
-      <c r="O24" s="38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="O24" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G25" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
-        <v>60</v>
-      </c>
-      <c r="I25" s="2">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
       <c r="K25" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="10">
         <v>12</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2083,39 +2077,41 @@
         <v>2</v>
       </c>
       <c r="B26" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G26" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="I26" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J26" s="2">
-        <v>60</v>
-      </c>
-      <c r="K26" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K26" s="2">
+        <v>20</v>
+      </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="10">
         <v>12</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2125,81 +2121,83 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G27" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H27" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I27" s="2">
         <v>45</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2">
-        <v>30</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="J27" s="2">
+        <v>60</v>
+      </c>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
       <c r="M27" s="15"/>
       <c r="N27" s="14">
         <v>12</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G28" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H28" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I28" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
+      <c r="K28" s="2">
+        <v>30</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M28" s="2"/>
       <c r="N28" s="10">
         <v>12</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2209,41 +2207,37 @@
         <v>3</v>
       </c>
       <c r="B29" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G29" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I29" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>30</v>
-      </c>
+      <c r="K29" s="2"/>
       <c r="L29" s="2"/>
-      <c r="M29" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="10">
         <v>12</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2253,85 +2247,83 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G30" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H30" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I30" s="2">
         <v>45</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M30" s="2"/>
+      <c r="K30" s="2">
+        <v>30</v>
+      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="N30" s="10">
         <v>12</v>
       </c>
-      <c r="O30" s="38">
+      <c r="O30" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G31" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H31" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I31" s="2">
         <v>45</v>
       </c>
-      <c r="J31" s="2">
-        <v>30</v>
-      </c>
+      <c r="J31" s="2"/>
       <c r="K31" s="2"/>
       <c r="L31" s="2">
         <v>0.1</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="10">
         <v>12</v>
       </c>
-      <c r="O31" s="38">
+      <c r="O31" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2341,19 +2333,19 @@
         <v>4</v>
       </c>
       <c r="B32" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G32" s="2">
         <v>4</v>
@@ -2364,20 +2356,20 @@
       <c r="I32" s="2">
         <v>45</v>
       </c>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2">
-        <v>30</v>
-      </c>
+      <c r="J32" s="2">
+        <v>30</v>
+      </c>
+      <c r="K32" s="2"/>
       <c r="L32" s="2">
         <v>0.1</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N32" s="10">
         <v>12</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2387,28 +2379,28 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H33" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I33" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J33" s="2"/>
       <c r="K33" s="2">
@@ -2417,11 +2409,13 @@
       <c r="L33" s="2">
         <v>0.1</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="N33" s="10">
         <v>12</v>
       </c>
-      <c r="O33" s="38">
+      <c r="O33" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2431,35 +2425,41 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G34" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H34" s="2">
-        <v>30</v>
-      </c>
-      <c r="I34" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I34" s="2">
+        <v>30</v>
+      </c>
       <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
+      <c r="K34" s="2">
+        <v>30</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M34" s="2"/>
       <c r="N34" s="10">
         <v>12</v>
       </c>
-      <c r="O34" s="38">
+      <c r="O34" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2469,13 +2469,13 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
@@ -2484,64 +2484,62 @@
         <v>117</v>
       </c>
       <c r="G35" s="2">
-        <v>4</v>
-      </c>
-      <c r="H35" s="4">
-        <v>75</v>
-      </c>
-      <c r="I35" s="4">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H35" s="2">
+        <v>30</v>
+      </c>
+      <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="4">
-        <v>30</v>
-      </c>
+      <c r="K35" s="2"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="10">
         <v>12</v>
       </c>
-      <c r="O35" s="38">
+      <c r="O35" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G36" s="2">
-        <v>3</v>
-      </c>
-      <c r="H36" s="2">
-        <v>45</v>
-      </c>
-      <c r="I36" s="2">
+        <v>4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>75</v>
+      </c>
+      <c r="I36" s="4">
         <v>45</v>
       </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="4">
+        <v>30</v>
+      </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="10">
         <v>12</v>
       </c>
-      <c r="O36" s="38">
+      <c r="O36" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2551,87 +2549,83 @@
         <v>5</v>
       </c>
       <c r="B37" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G37" s="2">
         <v>3</v>
       </c>
       <c r="H37" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I37" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2">
-        <v>30</v>
-      </c>
-      <c r="L37" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
       <c r="N37" s="10">
         <v>12</v>
       </c>
-      <c r="O37" s="38">
+      <c r="O37" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G38" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H38" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I38" s="2">
-        <v>15</v>
-      </c>
-      <c r="J38" s="2">
-        <v>30</v>
-      </c>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2">
+        <v>30</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M38" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N38" s="14">
         <v>12</v>
       </c>
-      <c r="O38" s="38">
+      <c r="O38" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2641,61 +2635,63 @@
         <v>6</v>
       </c>
       <c r="B39" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G39" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H39" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2">
-        <v>30</v>
-      </c>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J39" s="2">
+        <v>30</v>
+      </c>
+      <c r="K39" s="2"/>
       <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="N39" s="10">
         <v>12</v>
       </c>
-      <c r="O39" s="38">
+      <c r="O39" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G40" s="2">
         <v>3</v>
@@ -2706,16 +2702,16 @@
       <c r="I40" s="2">
         <v>30</v>
       </c>
-      <c r="J40" s="2">
-        <v>30</v>
-      </c>
-      <c r="K40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>30</v>
+      </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="10">
         <v>12</v>
       </c>
-      <c r="O40" s="38">
+      <c r="O40" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2725,81 +2721,81 @@
         <v>7</v>
       </c>
       <c r="B41" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G41" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I41" s="2">
-        <v>45</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J41" s="2">
+        <v>30</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="10">
         <v>12</v>
       </c>
-      <c r="O41" s="38">
+      <c r="O41" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="5">
-        <v>21</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="16" t="s">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2">
+        <v>32</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G42" s="5">
+      <c r="G42" s="2">
         <v>4</v>
       </c>
-      <c r="H42" s="6">
+      <c r="H42" s="2">
         <v>75</v>
       </c>
-      <c r="I42" s="6">
-        <v>45</v>
-      </c>
-      <c r="J42" s="5"/>
-      <c r="K42" s="6">
-        <v>30</v>
-      </c>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N42" s="12"/>
-      <c r="O42" s="38">
+      <c r="I42" s="2">
+        <v>45</v>
+      </c>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>30</v>
+      </c>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="10">
+        <v>12</v>
+      </c>
+      <c r="O42" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2839,7 +2835,7 @@
       <c r="L43" s="5"/>
       <c r="M43" s="5"/>
       <c r="N43" s="12"/>
-      <c r="O43" s="38">
+      <c r="O43" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2881,7 +2877,7 @@
         <v>107</v>
       </c>
       <c r="N44" s="12"/>
-      <c r="O44" s="38">
+      <c r="O44" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2921,7 +2917,7 @@
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
       <c r="N45" s="12"/>
-      <c r="O45" s="38">
+      <c r="O45" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2955,7 +2951,7 @@
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
       <c r="N46" s="12"/>
-      <c r="O46" s="38">
+      <c r="O46" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2989,7 +2985,7 @@
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
       <c r="N47" s="12"/>
-      <c r="O47" s="38">
+      <c r="O47" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>

--- a/Chuong trinh dao tao.xlsx
+++ b/Chuong trinh dao tao.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev01\Desktop\Tai-lieu-mon-hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273A8D1C-AE01-483E-A170-FF20150F3C8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EFE6B-F006-48EE-AD70-BC7D62435BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="1245" windowWidth="27795" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="132">
   <si>
     <t>STT</t>
   </si>
@@ -463,6 +463,9 @@
 bình 
 tích 
 lũy</t>
+  </si>
+  <si>
+    <t>Điểm TB hiện tại</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -606,6 +609,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -691,9 +700,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -775,16 +781,20 @@
     <xf numFmtId="0" fontId="8" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1068,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,177 +1093,182 @@
     <col min="10" max="10" width="9.85546875" customWidth="1"/>
     <col min="11" max="12" width="9.140625" customWidth="1"/>
     <col min="13" max="13" width="40.85546875" customWidth="1"/>
-    <col min="14" max="14" width="14" style="9" customWidth="1"/>
+    <col min="14" max="14" width="14" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
     </row>
     <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="38"/>
-      <c r="N2" s="38"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
     </row>
     <row r="4" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="23">
+      <c r="B4" s="22">
         <f>COUNT(B6:B47)</f>
         <v>42</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="25">
+      <c r="D4" s="24">
         <f>COUNTIF(N6:N47,12)</f>
         <v>22</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="25" t="s">
         <v>127</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="26">
         <f>COUNTBLANK(N6:N47)</f>
-        <v>5</v>
-      </c>
-      <c r="G4" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="29">
+      <c r="H4" s="28">
         <f>SUMIF(N6:N47,"&lt;&gt;12",G6:G47)</f>
         <v>68</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="J4" s="31">
+      <c r="J4" s="30">
         <f>SUMIFS(G6:G47,N6:N47, "&lt;&gt;", N6:N47, "&lt;&gt;12")</f>
-        <v>47</v>
-      </c>
-      <c r="K4" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="33">
+      <c r="L4" s="32">
         <f>SUM(O6:O47)</f>
-        <v>5.82</v>
-      </c>
-      <c r="M4" s="34"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
+        <v>6.33</v>
+      </c>
+      <c r="M4" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="N4" s="39">
+        <f>AVERAGEIFS(N6:N47,N6:N47,"&lt;&gt;",N6:N47,"&lt;=10")</f>
+        <v>8.4156250000000004</v>
+      </c>
+      <c r="O4" s="33"/>
     </row>
     <row r="5" spans="1:15" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="J5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="8" t="s">
+      <c r="K5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="L5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="O5" s="8" t="s">
+      <c r="O5" s="7" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
+      <c r="A6" s="19">
         <v>6</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="19">
         <v>28</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="19">
         <v>3</v>
       </c>
-      <c r="H6" s="20">
-        <v>45</v>
-      </c>
-      <c r="I6" s="20">
-        <v>45</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20" t="s">
+      <c r="H6" s="19">
+        <v>45</v>
+      </c>
+      <c r="I6" s="19">
+        <v>45</v>
+      </c>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="N6" s="21">
+      <c r="N6" s="20">
         <v>6</v>
       </c>
-      <c r="O6" s="36">
+      <c r="O6" s="34">
         <f>IF(N6&lt;&gt;12, ROUND((N6*G6)/$H$4,2), 0)</f>
         <v>0.26</v>
       </c>
@@ -1288,10 +1303,10 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-      <c r="N7" s="11">
+      <c r="N7" s="10">
         <v>7.5</v>
       </c>
-      <c r="O7" s="36">
+      <c r="O7" s="34">
         <f t="shared" ref="O7:O47" si="0">IF(N7&lt;&gt;12, ROUND((N7*G7)/$H$4,2), 0)</f>
         <v>0.11</v>
       </c>
@@ -1334,10 +1349,10 @@
       <c r="M8" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N8" s="11">
+      <c r="N8" s="10">
         <v>7.5</v>
       </c>
-      <c r="O8" s="36">
+      <c r="O8" s="34">
         <f t="shared" si="0"/>
         <v>0.33</v>
       </c>
@@ -1364,24 +1379,24 @@
       <c r="G9" s="3">
         <v>4</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="6">
         <v>75</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>45</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="7">
+      <c r="K9" s="6">
         <v>30</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="N9" s="11">
+      <c r="N9" s="10">
         <v>7.5</v>
       </c>
-      <c r="O9" s="36">
+      <c r="O9" s="34">
         <f t="shared" si="0"/>
         <v>0.44</v>
       </c>
@@ -1422,10 +1437,10 @@
         <v>0.1</v>
       </c>
       <c r="M10" s="3"/>
-      <c r="N10" s="11">
+      <c r="N10" s="10">
         <v>8</v>
       </c>
-      <c r="O10" s="36">
+      <c r="O10" s="34">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -1466,10 +1481,10 @@
       <c r="M11" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="10">
         <v>8</v>
       </c>
-      <c r="O11" s="36">
+      <c r="O11" s="34">
         <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
@@ -1510,10 +1525,10 @@
         <v>0.1</v>
       </c>
       <c r="M12" s="3"/>
-      <c r="N12" s="11">
+      <c r="N12" s="10">
         <v>8</v>
       </c>
-      <c r="O12" s="36">
+      <c r="O12" s="34">
         <f t="shared" si="0"/>
         <v>0.47</v>
       </c>
@@ -1556,10 +1571,10 @@
       <c r="M13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N13" s="11">
+      <c r="N13" s="10">
         <v>8.5</v>
       </c>
-      <c r="O13" s="36">
+      <c r="O13" s="34">
         <f t="shared" si="0"/>
         <v>0.5</v>
       </c>
@@ -1598,10 +1613,10 @@
       <c r="M14" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="N14" s="11">
+      <c r="N14" s="10">
         <v>8.5</v>
       </c>
-      <c r="O14" s="36">
+      <c r="O14" s="34">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
@@ -1611,13 +1626,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>20</v>
@@ -1626,36 +1641,40 @@
         <v>117</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
-      </c>
-      <c r="H15" s="7">
-        <v>30</v>
-      </c>
-      <c r="I15" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H15" s="6">
+        <v>75</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45</v>
+      </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="K15" s="6">
+        <v>30</v>
+      </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
-      <c r="N15" s="11">
-        <v>9</v>
-      </c>
-      <c r="O15" s="36">
-        <f t="shared" si="0"/>
-        <v>0.13</v>
+      <c r="N15" s="10">
+        <v>8.65</v>
+      </c>
+      <c r="O15" s="35">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" s="3">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>32</v>
+        <v>61</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>20</v>
@@ -1664,40 +1683,36 @@
         <v>117</v>
       </c>
       <c r="G16" s="3">
-        <v>4</v>
-      </c>
-      <c r="H16" s="3">
-        <v>75</v>
-      </c>
-      <c r="I16" s="3">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H16" s="6">
+        <v>30</v>
+      </c>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
-      <c r="K16" s="3">
-        <v>30</v>
-      </c>
+      <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-      <c r="N16" s="11">
-        <v>9.5</v>
-      </c>
-      <c r="O16" s="36">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="N16" s="10">
+        <v>9</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="0"/>
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B17" s="3">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -1706,42 +1721,40 @@
         <v>117</v>
       </c>
       <c r="G17" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I17" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
         <v>30</v>
       </c>
       <c r="L17" s="3"/>
-      <c r="M17" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17" s="11">
+      <c r="M17" s="3"/>
+      <c r="N17" s="10">
         <v>9.5</v>
       </c>
-      <c r="O17" s="36">
-        <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="O17" s="34">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>7</v>
       </c>
       <c r="B18" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
@@ -1750,26 +1763,28 @@
         <v>117</v>
       </c>
       <c r="G18" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I18" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
         <v>30</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="11">
+      <c r="M18" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="N18" s="10">
         <v>9.5</v>
       </c>
-      <c r="O18" s="36">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+      <c r="O18" s="34">
+        <f t="shared" si="0"/>
+        <v>0.42</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1777,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -1792,34 +1807,40 @@
         <v>117</v>
       </c>
       <c r="G19" s="3">
-        <v>2</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H19" s="3">
+        <v>75</v>
+      </c>
+      <c r="I19" s="3">
+        <v>45</v>
+      </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="K19" s="3">
+        <v>30</v>
+      </c>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-      <c r="N19" s="11">
+      <c r="N19" s="10">
         <v>9.5</v>
       </c>
-      <c r="O19" s="36">
-        <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+      <c r="O19" s="34">
+        <f t="shared" si="0"/>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -1828,101 +1849,91 @@
         <v>117</v>
       </c>
       <c r="G20" s="3">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3">
-        <v>75</v>
-      </c>
-      <c r="I20" s="3">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
-      <c r="K20" s="3">
-        <v>30</v>
-      </c>
+      <c r="K20" s="3"/>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
-      <c r="N20" s="11">
+      <c r="N20" s="10">
         <v>9.5</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="34">
+        <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="3">
+        <v>4</v>
+      </c>
+      <c r="H21" s="3">
+        <v>75</v>
+      </c>
+      <c r="I21" s="3">
+        <v>45</v>
+      </c>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3">
+        <v>30</v>
+      </c>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="O21" s="34">
         <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3</v>
-      </c>
-      <c r="H21" s="2">
-        <v>60</v>
-      </c>
-      <c r="I21" s="2">
-        <v>30</v>
-      </c>
-      <c r="J21" s="2">
-        <v>30</v>
-      </c>
-      <c r="K21" s="2">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="10">
-        <v>12</v>
-      </c>
-      <c r="O21" s="36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G22" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H22" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I22" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J22" s="2">
         <v>30</v>
@@ -1934,32 +1945,32 @@
         <v>0.1</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="10">
+      <c r="N22" s="9">
         <v>12</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G23" s="2">
         <v>4</v>
@@ -1980,10 +1991,10 @@
         <v>0.1</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="10">
+      <c r="N23" s="9">
         <v>12</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1993,125 +2004,127 @@
         <v>1</v>
       </c>
       <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G24" s="2">
         <v>4</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="2">
-        <v>3</v>
-      </c>
       <c r="H24" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I24" s="2">
-        <v>30</v>
-      </c>
-      <c r="J24" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="J24" s="2">
+        <v>30</v>
+      </c>
       <c r="K24" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L24" s="2">
         <v>0.1</v>
       </c>
       <c r="M24" s="2"/>
-      <c r="N24" s="10">
+      <c r="N24" s="9">
         <v>12</v>
       </c>
-      <c r="O24" s="36">
+      <c r="O24" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>1</v>
       </c>
       <c r="B25" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G25" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H25" s="2">
-        <v>30</v>
-      </c>
-      <c r="I25" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="2">
+        <v>30</v>
+      </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2">
         <v>30</v>
       </c>
-      <c r="L25" s="2"/>
+      <c r="L25" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M25" s="2"/>
-      <c r="N25" s="10">
+      <c r="N25" s="9">
         <v>12</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G26" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H26" s="2">
-        <v>60</v>
-      </c>
-      <c r="I26" s="2">
-        <v>30</v>
-      </c>
-      <c r="J26" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="10">
+      <c r="N26" s="9">
         <v>12</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2121,39 +2134,41 @@
         <v>2</v>
       </c>
       <c r="B27" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G27" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="I27" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J27" s="2">
-        <v>60</v>
-      </c>
-      <c r="K27" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K27" s="2">
+        <v>20</v>
+      </c>
       <c r="L27" s="2"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="14">
+      <c r="M27" s="14"/>
+      <c r="N27" s="13">
         <v>12</v>
       </c>
-      <c r="O27" s="36">
+      <c r="O27" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2163,81 +2178,83 @@
         <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G28" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H28" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I28" s="2">
         <v>45</v>
       </c>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2">
-        <v>30</v>
-      </c>
-      <c r="L28" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="J28" s="2">
+        <v>60</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="10">
+      <c r="N28" s="9">
         <v>12</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2">
+        <v>9</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="2">
+        <v>4</v>
+      </c>
+      <c r="H29" s="2">
+        <v>75</v>
+      </c>
+      <c r="I29" s="2">
+        <v>45</v>
+      </c>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2">
+        <v>30</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="9">
         <v>12</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="G29" s="2">
-        <v>2</v>
-      </c>
-      <c r="H29" s="2">
-        <v>30</v>
-      </c>
-      <c r="I29" s="2">
-        <v>30</v>
-      </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="10">
-        <v>12</v>
-      </c>
-      <c r="O29" s="36">
+      <c r="O29" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2247,41 +2264,37 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G30" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I30" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2">
-        <v>30</v>
-      </c>
+      <c r="K30" s="2"/>
       <c r="L30" s="2"/>
-      <c r="M30" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N30" s="10">
+      <c r="M30" s="2"/>
+      <c r="N30" s="9">
         <v>12</v>
       </c>
-      <c r="O30" s="36">
+      <c r="O30" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2291,85 +2304,83 @@
         <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G31" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H31" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I31" s="2">
         <v>45</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="10">
+      <c r="K31" s="2">
+        <v>30</v>
+      </c>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" s="9">
         <v>12</v>
       </c>
-      <c r="O31" s="36">
+      <c r="O31" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G32" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I32" s="2">
         <v>45</v>
       </c>
-      <c r="J32" s="2">
-        <v>30</v>
-      </c>
+      <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2">
         <v>0.1</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="N32" s="10">
+      <c r="M32" s="2"/>
+      <c r="N32" s="9">
         <v>12</v>
       </c>
-      <c r="O32" s="36">
+      <c r="O32" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2379,19 +2390,19 @@
         <v>4</v>
       </c>
       <c r="B33" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G33" s="2">
         <v>4</v>
@@ -2402,20 +2413,20 @@
       <c r="I33" s="2">
         <v>45</v>
       </c>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2">
-        <v>30</v>
-      </c>
+      <c r="J33" s="2">
+        <v>30</v>
+      </c>
+      <c r="K33" s="2"/>
       <c r="L33" s="2">
         <v>0.1</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="N33" s="10">
+        <v>106</v>
+      </c>
+      <c r="N33" s="9">
         <v>12</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2425,28 +2436,28 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G34" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I34" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2">
@@ -2455,11 +2466,13 @@
       <c r="L34" s="2">
         <v>0.1</v>
       </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="10">
+      <c r="M34" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="9">
         <v>12</v>
       </c>
-      <c r="O34" s="36">
+      <c r="O34" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2469,35 +2482,41 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G35" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" s="2">
-        <v>30</v>
-      </c>
-      <c r="I35" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I35" s="2">
+        <v>30</v>
+      </c>
       <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
+      <c r="K35" s="2">
+        <v>30</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M35" s="2"/>
-      <c r="N35" s="10">
+      <c r="N35" s="9">
         <v>12</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2507,13 +2526,13 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
@@ -2522,64 +2541,62 @@
         <v>117</v>
       </c>
       <c r="G36" s="2">
-        <v>4</v>
-      </c>
-      <c r="H36" s="4">
-        <v>75</v>
-      </c>
-      <c r="I36" s="4">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H36" s="2">
+        <v>30</v>
+      </c>
+      <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36" s="4">
-        <v>30</v>
-      </c>
+      <c r="K36" s="2"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="10">
+      <c r="N36" s="9">
         <v>12</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G37" s="2">
-        <v>3</v>
-      </c>
-      <c r="H37" s="2">
-        <v>45</v>
-      </c>
-      <c r="I37" s="2">
+        <v>4</v>
+      </c>
+      <c r="H37" s="4">
+        <v>75</v>
+      </c>
+      <c r="I37" s="4">
         <v>45</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="4">
+        <v>30</v>
+      </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="10">
+      <c r="N37" s="9">
         <v>12</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2589,87 +2606,83 @@
         <v>5</v>
       </c>
       <c r="B38" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G38" s="2">
         <v>3</v>
       </c>
       <c r="H38" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I38" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2">
-        <v>30</v>
-      </c>
-      <c r="L38" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="N38" s="14">
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="13">
         <v>12</v>
       </c>
-      <c r="O38" s="36">
+      <c r="O38" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G39" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H39" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I39" s="2">
-        <v>15</v>
-      </c>
-      <c r="J39" s="2">
-        <v>30</v>
-      </c>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2">
+        <v>30</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M39" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="N39" s="10">
+        <v>102</v>
+      </c>
+      <c r="N39" s="9">
         <v>12</v>
       </c>
-      <c r="O39" s="36">
+      <c r="O39" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2679,61 +2692,63 @@
         <v>6</v>
       </c>
       <c r="B40" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G40" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H40" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I40" s="2">
-        <v>30</v>
-      </c>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J40" s="2">
+        <v>30</v>
+      </c>
+      <c r="K40" s="2"/>
       <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="10">
+      <c r="M40" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="N40" s="9">
         <v>12</v>
       </c>
-      <c r="O40" s="36">
+      <c r="O40" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G41" s="2">
         <v>3</v>
@@ -2744,16 +2759,16 @@
       <c r="I41" s="2">
         <v>30</v>
       </c>
-      <c r="J41" s="2">
-        <v>30</v>
-      </c>
-      <c r="K41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2">
+        <v>30</v>
+      </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="10">
+      <c r="N41" s="9">
         <v>12</v>
       </c>
-      <c r="O41" s="36">
+      <c r="O41" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2763,79 +2778,81 @@
         <v>7</v>
       </c>
       <c r="B42" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G42" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H42" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I42" s="2">
-        <v>45</v>
-      </c>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J42" s="2">
+        <v>30</v>
+      </c>
+      <c r="K42" s="2"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="10">
+      <c r="N42" s="9">
         <v>12</v>
       </c>
-      <c r="O42" s="36">
+      <c r="O42" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>5</v>
-      </c>
-      <c r="B43" s="5">
-        <v>23</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="16" t="s">
+      <c r="A43" s="2">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2">
+        <v>32</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="5">
+      <c r="G43" s="2">
         <v>4</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="2">
         <v>75</v>
       </c>
-      <c r="I43" s="6">
-        <v>45</v>
-      </c>
-      <c r="J43" s="5"/>
-      <c r="K43" s="6">
-        <v>30</v>
-      </c>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
-      <c r="N43" s="12"/>
-      <c r="O43" s="36">
+      <c r="I43" s="2">
+        <v>45</v>
+      </c>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2">
+        <v>30</v>
+      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="9">
+        <v>12</v>
+      </c>
+      <c r="O43" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2856,7 +2873,7 @@
       <c r="E44" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="17" t="s">
+      <c r="F44" s="16" t="s">
         <v>117</v>
       </c>
       <c r="G44" s="5">
@@ -2876,8 +2893,8 @@
       <c r="M44" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="N44" s="12"/>
-      <c r="O44" s="36">
+      <c r="N44" s="11"/>
+      <c r="O44" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2898,7 +2915,7 @@
       <c r="E45" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="17" t="s">
+      <c r="F45" s="16" t="s">
         <v>117</v>
       </c>
       <c r="G45" s="5">
@@ -2916,8 +2933,8 @@
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="5"/>
-      <c r="N45" s="12"/>
-      <c r="O45" s="36">
+      <c r="N45" s="11"/>
+      <c r="O45" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2938,7 +2955,7 @@
       <c r="E46" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="16" t="s">
+      <c r="F46" s="15" t="s">
         <v>113</v>
       </c>
       <c r="G46" s="5">
@@ -2950,8 +2967,8 @@
       <c r="K46" s="5"/>
       <c r="L46" s="5"/>
       <c r="M46" s="5"/>
-      <c r="N46" s="12"/>
-      <c r="O46" s="36">
+      <c r="N46" s="11"/>
+      <c r="O46" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -2972,7 +2989,7 @@
       <c r="E47" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="16" t="s">
+      <c r="F47" s="15" t="s">
         <v>113</v>
       </c>
       <c r="G47" s="5">
@@ -2984,15 +3001,15 @@
       <c r="K47" s="5"/>
       <c r="L47" s="5"/>
       <c r="M47" s="5"/>
-      <c r="N47" s="12"/>
-      <c r="O47" s="36">
+      <c r="N47" s="11"/>
+      <c r="O47" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="N48" s="13"/>
+      <c r="N48" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:N47" xr:uid="{C27BA223-9A1E-482E-B4D3-51376FA687A9}">

--- a/Chuong trinh dao tao.xlsx
+++ b/Chuong trinh dao tao.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev01\Desktop\Tai-lieu-mon-hoc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432EFE6B-F006-48EE-AD70-BC7D62435BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A01AFAB-BA64-45F9-903C-BE29712E8CE9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,17 +784,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,8 +1078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="Q48" sqref="Q48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1097,40 +1097,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
     </row>
     <row r="2" spans="1:15" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B2" s="37"/>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
     </row>
     <row r="4" spans="1:15" ht="141" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="21" t="s">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="F4" s="26">
         <f>COUNTBLANK(N6:N47)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>128</v>
@@ -1166,21 +1166,21 @@
       </c>
       <c r="J4" s="30">
         <f>SUMIFS(G6:G47,N6:N47, "&lt;&gt;", N6:N47, "&lt;&gt;12")</f>
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K4" s="31" t="s">
         <v>130</v>
       </c>
       <c r="L4" s="32">
         <f>SUM(O6:O47)</f>
-        <v>6.33</v>
-      </c>
-      <c r="M4" s="38" t="s">
+        <v>6.9500000000000011</v>
+      </c>
+      <c r="M4" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="N4" s="39">
+      <c r="N4" s="37">
         <f>AVERAGEIFS(N6:N47,N6:N47,"&lt;&gt;",N6:N47,"&lt;=10")</f>
-        <v>8.4156250000000004</v>
+        <v>8.5588235294117645</v>
       </c>
       <c r="O4" s="33"/>
     </row>
@@ -1266,11 +1266,11 @@
         <v>103</v>
       </c>
       <c r="N6" s="20">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="O6" s="34">
         <f>IF(N6&lt;&gt;12, ROUND((N6*G6)/$H$4,2), 0)</f>
-        <v>0.26</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1656,11 +1656,11 @@
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
       <c r="N15" s="10">
-        <v>8.65</v>
+        <v>9</v>
       </c>
       <c r="O15" s="35">
         <f t="shared" si="0"/>
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1703,16 +1703,16 @@
     </row>
     <row r="17" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B17" s="3">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>89</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>20</v>
@@ -1736,25 +1736,25 @@
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
       <c r="N17" s="10">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O17" s="34">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B18" s="3">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>80</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>20</v>
@@ -1763,42 +1763,40 @@
         <v>117</v>
       </c>
       <c r="G18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H18" s="3">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I18" s="3">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18" s="3">
         <v>30</v>
       </c>
       <c r="L18" s="3"/>
-      <c r="M18" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="M18" s="3"/>
       <c r="N18" s="10">
         <v>9.5</v>
       </c>
       <c r="O18" s="34">
         <f t="shared" si="0"/>
-        <v>0.42</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+        <v>0.56000000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="40.5" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>7</v>
       </c>
       <c r="B19" s="3">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>20</v>
@@ -1807,26 +1805,28 @@
         <v>117</v>
       </c>
       <c r="G19" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19" s="3">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I19" s="3">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19" s="3">
         <v>30</v>
       </c>
       <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
+      <c r="M19" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="N19" s="10">
         <v>9.5</v>
       </c>
       <c r="O19" s="34">
         <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="27" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>7</v>
       </c>
       <c r="B20" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>20</v>
@@ -1849,12 +1849,18 @@
         <v>117</v>
       </c>
       <c r="G20" s="3">
-        <v>2</v>
-      </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H20" s="3">
+        <v>75</v>
+      </c>
+      <c r="I20" s="3">
+        <v>45</v>
+      </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="K20" s="3">
+        <v>30</v>
+      </c>
       <c r="L20" s="3"/>
       <c r="M20" s="3"/>
       <c r="N20" s="10">
@@ -1862,21 +1868,21 @@
       </c>
       <c r="O20" s="34">
         <f t="shared" si="0"/>
-        <v>0.28000000000000003</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>20</v>
@@ -1885,18 +1891,12 @@
         <v>117</v>
       </c>
       <c r="G21" s="3">
-        <v>4</v>
-      </c>
-      <c r="H21" s="3">
-        <v>75</v>
-      </c>
-      <c r="I21" s="3">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
       <c r="J21" s="3"/>
-      <c r="K21" s="3">
-        <v>30</v>
-      </c>
+      <c r="K21" s="3"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
       <c r="N21" s="10">
@@ -1904,82 +1904,78 @@
       </c>
       <c r="O21" s="34">
         <f t="shared" si="0"/>
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="3">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="G22" s="3">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <v>75</v>
+      </c>
+      <c r="I22" s="3">
+        <v>45</v>
+      </c>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3">
+        <v>30</v>
+      </c>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="10">
+        <v>9.5</v>
+      </c>
+      <c r="O22" s="34">
+        <f t="shared" si="0"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2">
-        <v>1</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="G22" s="2">
-        <v>3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>60</v>
-      </c>
-      <c r="I22" s="2">
-        <v>30</v>
-      </c>
-      <c r="J22" s="2">
-        <v>30</v>
-      </c>
-      <c r="K22" s="2">
-        <v>0</v>
-      </c>
-      <c r="L22" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M22" s="2"/>
-      <c r="N22" s="9">
-        <v>12</v>
-      </c>
-      <c r="O22" s="34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>1</v>
       </c>
       <c r="B23" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G23" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I23" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -1999,24 +1995,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>1</v>
       </c>
       <c r="B24" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G24" s="2">
         <v>4</v>
@@ -2050,32 +2046,34 @@
         <v>1</v>
       </c>
       <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G25" s="2">
         <v>4</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G25" s="2">
-        <v>3</v>
-      </c>
       <c r="H25" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I25" s="2">
-        <v>30</v>
-      </c>
-      <c r="J25" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="J25" s="2">
+        <v>30</v>
+      </c>
       <c r="K25" s="2">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L25" s="2">
         <v>0.1</v>
@@ -2089,37 +2087,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>1</v>
       </c>
       <c r="B26" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H26" s="2">
-        <v>30</v>
-      </c>
-      <c r="I26" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I26" s="2">
+        <v>30</v>
+      </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2">
         <v>30</v>
       </c>
-      <c r="L26" s="2"/>
+      <c r="L26" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M26" s="2"/>
       <c r="N26" s="9">
         <v>12</v>
@@ -2129,39 +2131,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="27" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G27" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H27" s="2">
-        <v>60</v>
-      </c>
-      <c r="I27" s="2">
-        <v>30</v>
-      </c>
-      <c r="J27" s="2">
-        <v>10</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
       <c r="K27" s="2">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="14"/>
@@ -2178,33 +2176,35 @@
         <v>2</v>
       </c>
       <c r="B28" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G28" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="I28" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J28" s="2">
-        <v>60</v>
-      </c>
-      <c r="K28" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="K28" s="2">
+        <v>20</v>
+      </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="9">
@@ -2220,36 +2220,34 @@
         <v>2</v>
       </c>
       <c r="B29" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G29" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H29" s="2">
-        <v>75</v>
+        <v>105</v>
       </c>
       <c r="I29" s="2">
         <v>45</v>
       </c>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2">
-        <v>30</v>
-      </c>
-      <c r="L29" s="2">
-        <v>0.1</v>
-      </c>
+      <c r="J29" s="2">
+        <v>60</v>
+      </c>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="9">
         <v>12</v>
@@ -2261,35 +2259,39 @@
     </row>
     <row r="30" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B30" s="2">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G30" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H30" s="2">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="I30" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
+      <c r="K30" s="2">
+        <v>30</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M30" s="2"/>
       <c r="N30" s="9">
         <v>12</v>
@@ -2304,37 +2306,33 @@
         <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G31" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" s="2">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="I31" s="2">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="J31" s="2"/>
-      <c r="K31" s="2">
-        <v>30</v>
-      </c>
+      <c r="K31" s="2"/>
       <c r="L31" s="2"/>
-      <c r="M31" s="2" t="s">
-        <v>105</v>
-      </c>
+      <c r="M31" s="2"/>
       <c r="N31" s="9">
         <v>12</v>
       </c>
@@ -2348,35 +2346,37 @@
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="G32" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32" s="2">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="I32" s="2">
         <v>45</v>
       </c>
       <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M32" s="2"/>
+      <c r="K32" s="2">
+        <v>30</v>
+      </c>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="N32" s="9">
         <v>12</v>
       </c>
@@ -2387,42 +2387,38 @@
     </row>
     <row r="33" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="G33" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H33" s="2">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="I33" s="2">
         <v>45</v>
       </c>
-      <c r="J33" s="2">
-        <v>30</v>
-      </c>
+      <c r="J33" s="2"/>
       <c r="K33" s="2"/>
       <c r="L33" s="2">
         <v>0.1</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>106</v>
-      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="9">
         <v>12</v>
       </c>
@@ -2436,19 +2432,19 @@
         <v>4</v>
       </c>
       <c r="B34" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="G34" s="2">
         <v>4</v>
@@ -2459,15 +2455,15 @@
       <c r="I34" s="2">
         <v>45</v>
       </c>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2">
-        <v>30</v>
-      </c>
+      <c r="J34" s="2">
+        <v>30</v>
+      </c>
+      <c r="K34" s="2"/>
       <c r="L34" s="2">
         <v>0.1</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N34" s="9">
         <v>12</v>
@@ -2482,28 +2478,28 @@
         <v>4</v>
       </c>
       <c r="B35" s="2">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="G35" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H35" s="2">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="I35" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J35" s="2"/>
       <c r="K35" s="2">
@@ -2512,7 +2508,9 @@
       <c r="L35" s="2">
         <v>0.1</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="N35" s="9">
         <v>12</v>
       </c>
@@ -2526,30 +2524,36 @@
         <v>4</v>
       </c>
       <c r="B36" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G36" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" s="2">
-        <v>30</v>
-      </c>
-      <c r="I36" s="2"/>
+        <v>60</v>
+      </c>
+      <c r="I36" s="2">
+        <v>30</v>
+      </c>
       <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
+      <c r="K36" s="2">
+        <v>30</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M36" s="2"/>
       <c r="N36" s="9">
         <v>12</v>
@@ -2564,13 +2568,13 @@
         <v>4</v>
       </c>
       <c r="B37" s="2">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>20</v>
@@ -2579,18 +2583,14 @@
         <v>117</v>
       </c>
       <c r="G37" s="2">
-        <v>4</v>
-      </c>
-      <c r="H37" s="4">
-        <v>75</v>
-      </c>
-      <c r="I37" s="4">
-        <v>45</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H37" s="2">
+        <v>30</v>
+      </c>
+      <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37" s="4">
-        <v>30</v>
-      </c>
+      <c r="K37" s="2"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="9">
@@ -2603,34 +2603,36 @@
     </row>
     <row r="38" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="G38" s="2">
-        <v>3</v>
-      </c>
-      <c r="H38" s="2">
-        <v>45</v>
-      </c>
-      <c r="I38" s="2">
+        <v>4</v>
+      </c>
+      <c r="H38" s="4">
+        <v>75</v>
+      </c>
+      <c r="I38" s="4">
         <v>45</v>
       </c>
       <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="4">
+        <v>30</v>
+      </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="13">
@@ -2646,39 +2648,33 @@
         <v>5</v>
       </c>
       <c r="B39" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G39" s="2">
         <v>3</v>
       </c>
       <c r="H39" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I39" s="2">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="J39" s="2"/>
-      <c r="K39" s="2">
-        <v>30</v>
-      </c>
-      <c r="L39" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="M39" s="2" t="s">
-        <v>102</v>
-      </c>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
       <c r="N39" s="9">
         <v>12</v>
       </c>
@@ -2689,39 +2685,41 @@
     </row>
     <row r="40" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B40" s="2">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G40" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H40" s="2">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="I40" s="2">
-        <v>15</v>
-      </c>
-      <c r="J40" s="2">
-        <v>30</v>
-      </c>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2">
+        <v>30</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0.1</v>
+      </c>
       <c r="M40" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="N40" s="9">
         <v>12</v>
@@ -2736,35 +2734,37 @@
         <v>6</v>
       </c>
       <c r="B41" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G41" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H41" s="2">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="I41" s="2">
-        <v>30</v>
-      </c>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2">
-        <v>30</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="J41" s="2">
+        <v>30</v>
+      </c>
+      <c r="K41" s="2"/>
       <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2" t="s">
+        <v>108</v>
+      </c>
       <c r="N41" s="9">
         <v>12</v>
       </c>
@@ -2775,22 +2775,22 @@
     </row>
     <row r="42" spans="1:15" ht="27" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B42" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G42" s="2">
         <v>3</v>
@@ -2801,10 +2801,10 @@
       <c r="I42" s="2">
         <v>30</v>
       </c>
-      <c r="J42" s="2">
-        <v>30</v>
-      </c>
-      <c r="K42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2">
+        <v>30</v>
+      </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="9">
@@ -2820,33 +2820,33 @@
         <v>7</v>
       </c>
       <c r="B43" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G43" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H43" s="2">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="I43" s="2">
-        <v>45</v>
-      </c>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2">
-        <v>30</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J43" s="2">
+        <v>30</v>
+      </c>
+      <c r="K43" s="2"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="9">
@@ -2858,42 +2858,42 @@
       </c>
     </row>
     <row r="44" spans="1:15" ht="27" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>8</v>
-      </c>
-      <c r="B44" s="5">
-        <v>37</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="16" t="s">
+      <c r="A44" s="2">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2">
+        <v>32</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G44" s="5">
+      <c r="G44" s="2">
         <v>4</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="2">
         <v>75</v>
       </c>
-      <c r="I44" s="5">
-        <v>45</v>
-      </c>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5">
-        <v>30</v>
-      </c>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="N44" s="11"/>
+      <c r="I44" s="2">
+        <v>45</v>
+      </c>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2">
+        <v>30</v>
+      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="9">
+        <v>12</v>
+      </c>
       <c r="O44" s="34">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2904,13 +2904,13 @@
         <v>8</v>
       </c>
       <c r="B45" s="5">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>20</v>
@@ -2932,7 +2932,9 @@
         <v>30</v>
       </c>
       <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="M45" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="34">
         <f t="shared" si="0"/>
